--- a/Turma Intensivo - 439 - Noite Julho 2017/Aula 7/Projeto Turma 439 Parte 2.xlsx
+++ b/Turma Intensivo - 439 - Noite Julho 2017/Aula 7/Projeto Turma 439 Parte 2.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7260" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="6990" tabRatio="888" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="PAINEL PRINCIPAL" sheetId="3" state="hidden" r:id="rId1"/>
+    <sheet name="PAINEL PRINCIPAL" sheetId="3" r:id="rId1"/>
     <sheet name="Configurações" sheetId="2" r:id="rId2"/>
     <sheet name="Contas a Receber" sheetId="4" r:id="rId3"/>
-    <sheet name="Contas a Pagar" sheetId="5" state="hidden" r:id="rId4"/>
-    <sheet name="GRÁFICOS" sheetId="6" state="hidden" r:id="rId5"/>
+    <sheet name="Contas a Pagar" sheetId="5" r:id="rId4"/>
+    <sheet name="GRÁFICOS" sheetId="6" r:id="rId5"/>
     <sheet name="Calcula Financiamento" sheetId="7" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="158">
   <si>
     <t>2 - CONFIGURAÇÕES</t>
   </si>
@@ -493,6 +493,15 @@
   </si>
   <si>
     <t>Produtos</t>
+  </si>
+  <si>
+    <t>Valor R$</t>
+  </si>
+  <si>
+    <t>Eu</t>
+  </si>
+  <si>
+    <t>venda</t>
   </si>
 </sst>
 </file>
@@ -603,7 +612,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -742,12 +751,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -783,6 +829,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -810,8 +858,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -882,8 +937,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFB67A68"/>
       <color rgb="FF841617"/>
-      <color rgb="FFB67A68"/>
       <color rgb="FFFFD357"/>
       <color rgb="FFFFC20F"/>
       <color rgb="FFFFE9AB"/>
@@ -3840,6 +3895,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="40" name="Retângulo 39">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{206782F6-765A-4579-A3A5-7BBA1C863674}"/>
@@ -3857,7 +3913,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="841617"/>
+          <a:srgbClr val="B67A68"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -3924,6 +3980,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="41" name="Retângulo 40">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E316215-156E-4A9D-B007-EA3A754F76B0}"/>
@@ -4008,6 +4065,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="42" name="Retângulo 41">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A458F1C-9ABD-4C6B-BA0D-5071C26600E8}"/>
@@ -4092,6 +4150,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="43" name="Retângulo 42">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E4DDA04-4AF9-4F0C-A8D7-4FE4EB4363B5}"/>
@@ -4176,6 +4235,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="44" name="Retângulo 43">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C8D9D3C-D75D-4C31-9BBD-A83C3C516995}"/>
@@ -4315,20 +4375,21 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>7844</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>192181</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Retângulo 2">
+        <xdr:cNvPr id="9" name="Retângulo 8">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC79EA03-ED08-43F2-AC7D-BB0C012199B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E95B40-087E-4FD3-AD60-0F397D88346A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4336,8 +4397,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="635373"/>
-          <a:ext cx="1714500" cy="597274"/>
+          <a:off x="0" y="628650"/>
+          <a:ext cx="1714500" cy="592231"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4398,21 +4459,22 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>5043</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>197224</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>192181</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Retângulo 3">
+        <xdr:cNvPr id="10" name="Retângulo 9">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D81739B-9985-4815-B45F-A1661E1F05E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C6B99F8-BD39-4449-8F7A-D42C1E9BDE4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4420,8 +4482,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1237690"/>
-          <a:ext cx="1714500" cy="600075"/>
+          <a:off x="0" y="1225924"/>
+          <a:ext cx="1714500" cy="595032"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4471,7 +4533,262 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>2 - Contas a Receber</a:t>
+            <a:t>2 - Configurações</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>197224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>192181</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Retângulo 10">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61183868-F8D7-4296-A59D-4B84F3813468}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1825999"/>
+          <a:ext cx="1714500" cy="595032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="841617"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="contrasting" dir="t">
+            <a:rot lat="0" lon="0" rev="7800000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="139700" h="139700"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3 - Contas a Receber</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>178174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>173131</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Retângulo 11">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E75BA2AB-0BD7-4F06-98C0-3286392A88AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2407024"/>
+          <a:ext cx="1714500" cy="595032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="841617"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="contrasting" dir="t">
+            <a:rot lat="0" lon="0" rev="7800000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="139700" h="139700"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>4 - Contas a Pagar</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>168649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>163606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Retângulo 12">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2215DB29-6D6E-446A-A360-77C7948519FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2997574"/>
+          <a:ext cx="1714500" cy="595032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="841617"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="contrasting" dir="t">
+            <a:rot lat="0" lon="0" rev="7800000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="139700" h="139700"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>5 - Gráficos</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4482,6 +4799,497 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>277810</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1354135</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>164979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagem 11" descr="Imagem relacionada">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65C6866-B7CF-4F03-9441-0DB46A207933}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="277810" y="0"/>
+          <a:ext cx="1076325" cy="603129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>192181</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Retângulo 17">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD5F721-E4F6-47F6-9B84-E014B48721FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="638175"/>
+          <a:ext cx="1714500" cy="592231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="841617"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="contrasting" dir="t">
+            <a:rot lat="0" lon="0" rev="7800000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="139700" h="139700"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1 - Painel Principal</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>197224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>192181</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Retângulo 18">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A15E8A-F934-4253-A5E6-4347736445FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1235449"/>
+          <a:ext cx="1714500" cy="595032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="841617"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="contrasting" dir="t">
+            <a:rot lat="0" lon="0" rev="7800000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="139700" h="139700"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2 - Configurações</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>197224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>192181</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Retângulo 19">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F563A97B-2BAC-49A2-8C0D-E74C19D8D1B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1835524"/>
+          <a:ext cx="1714500" cy="595032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="B67A68"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="contrasting" dir="t">
+            <a:rot lat="0" lon="0" rev="7800000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="139700" h="139700"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3 - Contas a Receber</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>178174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>173131</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Retângulo 20">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A1F6909-67BC-4859-A53E-DBA92E2A00E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2416549"/>
+          <a:ext cx="1714500" cy="595032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="841617"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="contrasting" dir="t">
+            <a:rot lat="0" lon="0" rev="7800000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="139700" h="139700"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>4 - Contas a Pagar</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>168649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>163606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Retângulo 21">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB152D6E-77BE-475A-92F0-35BA16169B7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3007099"/>
+          <a:ext cx="1714500" cy="595032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="841617"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="contrasting" dir="t">
+            <a:rot lat="0" lon="0" rev="7800000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="139700" h="139700"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>5 - Gráficos</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4967,7 +5775,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5491,7 +6299,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6334,7 +7142,7 @@
   <dimension ref="C1:P20"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6349,267 +7157,267 @@
   <sheetData>
     <row r="1" spans="3:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="3:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="3" spans="3:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="3:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
       <c r="O4" s="6" t="s">
         <v>52</v>
       </c>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="3:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="29"/>
       <c r="O5" s="6" t="s">
         <v>53</v>
       </c>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="3:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="29"/>
       <c r="O6" s="6" t="s">
         <v>54</v>
       </c>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="3:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="29"/>
       <c r="O7" s="6" t="s">
         <v>55</v>
       </c>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="3:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="29"/>
       <c r="O8" s="6" t="s">
         <v>56</v>
       </c>
       <c r="P8" s="6"/>
     </row>
     <row r="9" spans="3:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="29"/>
       <c r="O9" s="6" t="s">
         <v>57</v>
       </c>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="3:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="3:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="3:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="29"/>
     </row>
     <row r="13" spans="3:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="3:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="3:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="29"/>
     </row>
     <row r="16" spans="3:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="29"/>
     </row>
     <row r="17" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="29"/>
     </row>
     <row r="18" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
     </row>
     <row r="19" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" spans="3:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6627,8 +7435,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6648,33 +7459,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33"/>
+      <c r="A1" s="35"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="C2" s="31" t="s">
+      <c r="A2" s="35"/>
+      <c r="C2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
     </row>
     <row r="3" spans="1:17" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
+      <c r="A3" s="35"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="35"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -6690,7 +7501,9 @@
       <c r="K4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
@@ -6705,10 +7518,10 @@
       <c r="I5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="26">
         <v>15</v>
       </c>
     </row>
@@ -6725,10 +7538,10 @@
       <c r="I6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="26">
         <v>20</v>
       </c>
     </row>
@@ -6745,10 +7558,10 @@
       <c r="I7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7" s="26">
         <v>60</v>
       </c>
     </row>
@@ -6765,10 +7578,10 @@
       <c r="I8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="K8" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8" s="26">
         <v>55</v>
       </c>
     </row>
@@ -6785,10 +7598,10 @@
       <c r="I9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="K9" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9" s="26">
         <v>95</v>
       </c>
     </row>
@@ -6805,10 +7618,10 @@
       <c r="I10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="35">
+      <c r="L10" s="26">
         <v>40</v>
       </c>
     </row>
@@ -6816,10 +7629,10 @@
       <c r="E11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="K11" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L11" s="26">
         <v>18</v>
       </c>
     </row>
@@ -6827,10 +7640,10 @@
       <c r="E12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="K12" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L12" s="26">
         <v>120</v>
       </c>
     </row>
@@ -6838,10 +7651,10 @@
       <c r="E13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="34" t="s">
+      <c r="K13" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="35">
+      <c r="L13" s="26">
         <v>48</v>
       </c>
     </row>
@@ -6849,10 +7662,10 @@
       <c r="E14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="35">
+      <c r="L14" s="26">
         <v>75</v>
       </c>
     </row>
@@ -6860,10 +7673,10 @@
       <c r="E15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="34" t="s">
+      <c r="K15" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="L15" s="35">
+      <c r="L15" s="26">
         <v>12</v>
       </c>
     </row>
@@ -6905,8 +7718,8 @@
   </sheetPr>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6915,8 +7728,8 @@
     <col min="2" max="2" width="1.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32.42578125" bestFit="1" customWidth="1"/>
@@ -6930,21 +7743,21 @@
   <sheetData>
     <row r="1" spans="1:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
     </row>
     <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6989,22 +7802,36 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="C5" s="36">
+        <v>42941</v>
+      </c>
+      <c r="D5" s="44">
+        <v>234234</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>157</v>
+      </c>
       <c r="J5" s="20"/>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
       <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
+      <c r="O5" s="37"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="17"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="18"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
@@ -7016,10 +7843,10 @@
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
+      <c r="O6" s="37"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="17"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="18"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
@@ -7031,10 +7858,10 @@
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
       <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
+      <c r="O7" s="37"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="17"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="18"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
@@ -7046,10 +7873,10 @@
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
       <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
+      <c r="O8" s="37"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="17"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="18"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
@@ -7061,10 +7888,10 @@
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
       <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
+      <c r="O9" s="37"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="17"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="18"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
@@ -7076,10 +7903,10 @@
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
       <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
+      <c r="O10" s="37"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="17"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="18"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
@@ -7091,11 +7918,11 @@
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
       <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
+      <c r="O11" s="37"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="C12" s="17"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="18"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
@@ -7107,10 +7934,10 @@
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
       <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
+      <c r="O12" s="37"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="17"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="18"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
@@ -7122,10 +7949,10 @@
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
       <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
+      <c r="O13" s="37"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="17"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="18"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
@@ -7137,10 +7964,10 @@
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
       <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
+      <c r="O14" s="37"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="17"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="18"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
@@ -7152,10 +7979,10 @@
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
+      <c r="O15" s="37"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="17"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="18"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -7167,10 +7994,10 @@
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
       <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
+      <c r="O16" s="37"/>
     </row>
     <row r="17" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="17"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="18"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
@@ -7182,10 +8009,10 @@
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
       <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
+      <c r="O17" s="37"/>
     </row>
     <row r="18" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="17"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="18"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -7197,10 +8024,10 @@
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
       <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
+      <c r="O18" s="37"/>
     </row>
     <row r="19" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="17"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="18"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
@@ -7212,10 +8039,10 @@
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
       <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
+      <c r="O19" s="37"/>
     </row>
     <row r="20" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="17"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="18"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
@@ -7227,10 +8054,10 @@
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
       <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
+      <c r="O20" s="37"/>
     </row>
     <row r="21" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="17"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
@@ -7242,10 +8069,10 @@
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
       <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
+      <c r="O21" s="37"/>
     </row>
     <row r="22" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="17"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="18"/>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
@@ -7257,10 +8084,10 @@
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
       <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
+      <c r="O22" s="37"/>
     </row>
     <row r="23" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="17"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="18"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -7272,10 +8099,10 @@
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
+      <c r="O23" s="37"/>
     </row>
     <row r="24" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="17"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="18"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
@@ -7287,10 +8114,10 @@
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
       <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
+      <c r="O24" s="37"/>
     </row>
     <row r="25" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="17"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="18"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
@@ -7302,10 +8129,10 @@
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
       <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
+      <c r="O25" s="37"/>
     </row>
     <row r="26" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="17"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="18"/>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
@@ -7317,10 +8144,10 @@
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
       <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
+      <c r="O26" s="37"/>
     </row>
     <row r="27" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="17"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="18"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
@@ -7332,10 +8159,10 @@
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
       <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
+      <c r="O27" s="37"/>
     </row>
     <row r="28" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="17"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="18"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
@@ -7347,10 +8174,10 @@
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
       <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
+      <c r="O28" s="37"/>
     </row>
     <row r="29" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="17"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="18"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
@@ -7362,22 +8189,22 @@
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
       <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-    </row>
-    <row r="30" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
+      <c r="O29" s="37"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7396,6 +8223,31 @@
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Configurações!$K$5:$K$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>E5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Configurações!$I$5:$I$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>F5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Configurações!$C$5:$C$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>H5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7406,11 +8258,11 @@
   </sheetPr>
   <dimension ref="C1:N30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7433,20 +8285,20 @@
   <sheetData>
     <row r="1" spans="3:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
     </row>
     <row r="3" spans="3:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8594,19 +9446,19 @@
   <sheetData>
     <row r="1" spans="3:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="3:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -9161,22 +10013,22 @@
   <sheetData>
     <row r="1" spans="3:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="3:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
     </row>
     <row r="3" spans="3:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
